--- a/src/main/resources/script/db/init-data/hrds_prod_repo/hzero_platform/hzero-menu-user-role-label.xlsx
+++ b/src/main/resources/script/db/init-data/hrds_prod_repo/hzero_platform/hzero-menu-user-role-label.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chenxiuhong/Downloads/data/hzero-platform/hzero_platform/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{084768A0-5E0B-4B4B-A7F1-F613F101D781}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E75AD4AE-DE24-B14B-9EAC-DE0E5E090054}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="460" windowWidth="28700" windowHeight="14220" tabRatio="597" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1080" yWindow="460" windowWidth="31860" windowHeight="19260" tabRatio="597" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
     <definedName name="qwe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
     <definedName name="wqewqe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1512" uniqueCount="653">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1511" uniqueCount="653">
   <si>
     <r>
       <rPr>
@@ -56,6 +56,7 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>merge</t>
@@ -88,6 +89,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">sheet </t>
@@ -107,6 +109,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -126,6 +129,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">D7 </t>
@@ -177,6 +181,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>(</t>
@@ -196,6 +201,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -215,6 +221,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>)</t>
@@ -238,6 +245,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -259,6 +267,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -281,6 +290,7 @@
         <sz val="12"/>
         <color rgb="FFC55A11"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>*</t>
@@ -302,6 +312,7 @@
         <sz val="12"/>
         <color rgb="FF2E75B6"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>#</t>
@@ -333,6 +344,7 @@
         <sz val="12"/>
         <color rgb="FF548235"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>=</t>
@@ -364,6 +376,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -383,6 +396,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">,sheet </t>
@@ -402,6 +416,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -421,6 +436,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -440,6 +456,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>!</t>
@@ -469,6 +486,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>*</t>
@@ -488,6 +506,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">, </t>
@@ -507,6 +526,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -526,6 +546,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -557,6 +578,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>(</t>
@@ -576,6 +598,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>)</t>
@@ -595,6 +618,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">.
@@ -615,6 +639,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -634,6 +659,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">*
@@ -654,6 +680,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -685,6 +712,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">oracle </t>
@@ -704,6 +732,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -728,6 +757,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>#</t>
@@ -747,6 +777,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -766,6 +797,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>#</t>
@@ -785,6 +817,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -804,6 +837,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -835,6 +869,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>.</t>
@@ -866,6 +901,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -897,6 +933,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>#</t>
@@ -916,6 +953,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -940,6 +978,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>(TYPE)</t>
@@ -959,6 +998,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -978,6 +1018,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>:
@@ -998,6 +1039,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">;
@@ -1018,6 +1060,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">;
@@ -1038,6 +1081,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>VARCHAR</t>
@@ -1059,6 +1103,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">.
@@ -1079,6 +1124,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>:
@@ -1095,6 +1141,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">:LANG </t>
@@ -1116,6 +1163,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">TL </t>
@@ -1147,6 +1195,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>(</t>
@@ -1166,6 +1215,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>)</t>
@@ -1187,6 +1237,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -1219,6 +1270,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -1238,6 +1290,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -1257,6 +1310,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -1291,6 +1345,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>.</t>
@@ -1310,6 +1365,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">Excel </t>
@@ -1329,6 +1385,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -1348,6 +1405,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -1393,6 +1451,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">E9 </t>
@@ -1438,6 +1497,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">E9 </t>
@@ -1472,6 +1532,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">RESOURCE </t>
@@ -1491,6 +1552,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">E23 </t>
@@ -1510,6 +1572,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>(</t>
@@ -1530,6 +1593,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>)</t>
@@ -1554,6 +1618,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">RESOURCE </t>
@@ -1573,6 +1638,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">E23 </t>
@@ -1592,6 +1658,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>(</t>
@@ -1612,6 +1679,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>)</t>
@@ -1666,6 +1734,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>:</t>
@@ -1685,6 +1754,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">F10 </t>
@@ -1704,6 +1774,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">A9 </t>
@@ -1724,6 +1795,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">F10 </t>
@@ -1743,6 +1815,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">F11 </t>
@@ -1762,6 +1835,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">, F11 </t>
@@ -1781,6 +1855,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">A10
@@ -1801,6 +1876,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">F10 </t>
@@ -1820,6 +1896,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">G11 </t>
@@ -1839,6 +1916,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">, G11 </t>
@@ -1858,6 +1936,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">B10
@@ -1923,6 +2002,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -1954,6 +2034,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -1973,6 +2054,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">.
@@ -2131,7 +2213,7 @@
     <t>chrome_reader_mode</t>
   </si>
   <si>
-    <t>/infra/product-lib-org</t>
+    <t>/rdupm/product-lib-org</t>
   </si>
   <si>
     <t>choerodon.code.organization.infra|choerodon.code.organization.infra.product-lib</t>
@@ -2224,7 +2306,7 @@
     <t>manage_person</t>
   </si>
   <si>
-    <t>/infra/personal-setting</t>
+    <t>/rducm/personal-setting</t>
   </si>
   <si>
     <t>choerodon.code.person.setting|choerodon.code.person.setting.personal-setting</t>
@@ -2254,7 +2336,7 @@
     <t>choerodon.code.project.infra.product-lib</t>
   </si>
   <si>
-    <t>/infra/product-lib</t>
+    <t>/rdupm/product-lib</t>
   </si>
   <si>
     <t>choerodon.code.project.infra|choerodon.code.project.infra.product-lib</t>
@@ -2368,7 +2450,7 @@
     <t>choerodon.code.site.infra.product-lib</t>
   </si>
   <si>
-    <t>/infra/product-lib-site</t>
+    <t>/rdupm/product-lib-site</t>
   </si>
   <si>
     <t>choerodon.code.site.infra|choerodon.code.site.infra.product-lib</t>
@@ -3625,6 +3707,9 @@
     <t>角色权限</t>
   </si>
   <si>
+    <t>iam_role_permission</t>
+  </si>
+  <si>
     <t>#role_id</t>
   </si>
   <si>
@@ -3812,17 +3897,13 @@
   </si>
   <si>
     <t>标识gitlab_developer</t>
-  </si>
-  <si>
-    <t>iam_role_permission</t>
-    <phoneticPr fontId="17" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="88">
+  <fonts count="86">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -3834,30 +3915,35 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFC55A11"/>
       <name val="DengXian"/>
+      <family val="4"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF2E75B6"/>
       <name val="DengXian"/>
+      <family val="4"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF548235"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="DengXian"/>
+      <family val="4"/>
       <charset val="134"/>
     </font>
     <font>
@@ -3865,6 +3951,7 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="DengXian"/>
+      <family val="4"/>
       <charset val="134"/>
     </font>
     <font>
@@ -3892,12 +3979,14 @@
       <sz val="12"/>
       <color rgb="FF548235"/>
       <name val="DengXian"/>
+      <family val="4"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="DengXian"/>
+      <family val="4"/>
       <charset val="134"/>
     </font>
     <font>
@@ -3920,21 +4009,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF548235"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="微软雅黑"/>
       <family val="2"/>
@@ -3944,350 +4018,419 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="53"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="48"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="42"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="53"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="48"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="42"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="53"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="48"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="42"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="53"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="48"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="42"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="53"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="48"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="42"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="53"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="48"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="48"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="42"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="48"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="53"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="48"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="48"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="53"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="48"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="48"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="53"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="48"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="48"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="48"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="53"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="48"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="48"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="48"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="48"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="48"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="53"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="48"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="48"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="48"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="53"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="48"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="48"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -4482,6 +4625,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -4550,7 +4695,6 @@
     <xf numFmtId="0" fontId="83" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="84" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="85" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="86" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -4566,7 +4710,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="87" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -4935,11 +5078,11 @@
   <sheetData>
     <row r="1" spans="1:8" ht="64.5" customHeight="1">
       <c r="A1" s="4"/>
-      <c r="C1" s="97" t="s">
+      <c r="C1" s="98" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="97"/>
-      <c r="E1" s="97"/>
+      <c r="D1" s="98"/>
+      <c r="E1" s="98"/>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
@@ -4948,21 +5091,21 @@
       <c r="E2" s="6"/>
     </row>
     <row r="3" spans="1:8" ht="49.5" customHeight="1">
-      <c r="C3" s="96" t="s">
+      <c r="C3" s="97" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="96"/>
-      <c r="E3" s="98" t="s">
+      <c r="D3" s="97"/>
+      <c r="E3" s="99" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="98"/>
-      <c r="G3" s="98"/>
+      <c r="F3" s="99"/>
+      <c r="G3" s="99"/>
     </row>
     <row r="4" spans="1:8" ht="19">
-      <c r="C4" s="99" t="s">
+      <c r="C4" s="100" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="99"/>
+      <c r="D4" s="100"/>
       <c r="E4" s="7" t="s">
         <v>4</v>
       </c>
@@ -5073,11 +5216,11 @@
       </c>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="100" t="s">
+      <c r="C19" s="101" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="100"/>
-      <c r="E19" s="100"/>
+      <c r="D19" s="101"/>
+      <c r="E19" s="101"/>
     </row>
     <row r="20" spans="3:5">
       <c r="C20" s="24" t="s">
@@ -5115,19 +5258,19 @@
       <c r="C25" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="96" t="s">
+      <c r="D25" s="97" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="96"/>
+      <c r="E25" s="97"/>
     </row>
     <row r="26" spans="3:5" ht="14.25" customHeight="1">
       <c r="C26" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="96" t="s">
+      <c r="D26" s="97" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="96"/>
+      <c r="E26" s="97"/>
     </row>
     <row r="27" spans="3:5" ht="57">
       <c r="C27" s="26" t="s">
@@ -5144,7 +5287,7 @@
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C19:E19"/>
   </mergeCells>
-  <phoneticPr fontId="17" type="noConversion"/>
+  <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="0.69791666666666696" right="0.69791666666666696" top="0.75" bottom="0.75" header="0.51041666666666696" footer="0.51041666666666696"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
@@ -5154,14 +5297,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Y28"/>
   <sheetViews>
-    <sheetView topLeftCell="B6" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="O32" sqref="O32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="18"/>
   <cols>
-    <col min="5" max="5" width="19.85546875" customWidth="1"/>
-    <col min="6" max="6" width="26" customWidth="1"/>
+    <col min="16" max="16" width="29.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25">
@@ -6266,9 +6408,6 @@
       <c r="N26" t="s">
         <v>82</v>
       </c>
-      <c r="P26" t="s">
-        <v>81</v>
-      </c>
       <c r="Q26" t="s">
         <v>79</v>
       </c>
@@ -6400,7 +6539,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="17" type="noConversion"/>
+  <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -6409,14 +6548,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G171"/>
   <sheetViews>
-    <sheetView topLeftCell="A147" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="18"/>
-  <cols>
-    <col min="5" max="5" width="25.140625" customWidth="1"/>
-    <col min="6" max="6" width="28.140625" customWidth="1"/>
-    <col min="7" max="7" width="35.140625" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="34" t="s">
@@ -8435,7 +8569,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="17" type="noConversion"/>
+  <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -8444,17 +8578,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:O63"/>
   <sheetViews>
-    <sheetView topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="G61" sqref="G61"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="18"/>
-  <cols>
-    <col min="5" max="5" width="19" customWidth="1"/>
-    <col min="6" max="6" width="21.7109375" customWidth="1"/>
-    <col min="7" max="7" width="17.5703125" customWidth="1"/>
-    <col min="8" max="8" width="18.7109375" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" s="41" t="s">
@@ -9815,7 +9941,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="17" type="noConversion"/>
+  <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -9824,19 +9950,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:Y41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="18"/>
-  <cols>
-    <col min="4" max="4" width="24.7109375" customWidth="1"/>
-    <col min="5" max="5" width="21.42578125" customWidth="1"/>
-    <col min="6" max="6" width="21.5703125" customWidth="1"/>
-    <col min="7" max="7" width="20.42578125" customWidth="1"/>
-    <col min="8" max="8" width="20.5703125" customWidth="1"/>
-    <col min="9" max="9" width="16.42578125" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:25">
       <c r="A1" s="48" t="s">
@@ -10430,31 +10546,31 @@
       <c r="C17" t="s">
         <v>588</v>
       </c>
-      <c r="D17" s="101" t="s">
-        <v>652</v>
-      </c>
-      <c r="E17" s="88" t="s">
+      <c r="D17" s="88" t="s">
+        <v>589</v>
+      </c>
+      <c r="E17" s="89" t="s">
         <v>54</v>
       </c>
-      <c r="F17" s="89" t="s">
-        <v>589</v>
-      </c>
-      <c r="G17" s="90" t="s">
+      <c r="F17" s="90" t="s">
         <v>590</v>
       </c>
+      <c r="G17" s="91" t="s">
+        <v>591</v>
+      </c>
       <c r="H17" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="I17" t="s">
-        <v>592</v>
-      </c>
-      <c r="J17" s="91" t="s">
+        <v>593</v>
+      </c>
+      <c r="J17" s="92" t="s">
         <v>441</v>
       </c>
     </row>
     <row r="18" spans="1:10">
       <c r="E18" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="F18" t="str">
         <f>角色!$E$10</f>
@@ -10465,18 +10581,18 @@
         <v>iam_menu-19</v>
       </c>
       <c r="H18" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="I18" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="J18" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
     </row>
     <row r="19" spans="1:10">
       <c r="E19" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="F19" t="str">
         <f>角色!$E$10</f>
@@ -10487,18 +10603,18 @@
         <v>iam_menu-10</v>
       </c>
       <c r="H19" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="I19" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="J19" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
     </row>
     <row r="20" spans="1:10">
       <c r="E20" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="F20" t="str">
         <f>角色!$E$10</f>
@@ -10509,18 +10625,18 @@
         <v>iam_menu-11</v>
       </c>
       <c r="H20" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="I20" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="J20" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
     </row>
     <row r="21" spans="1:10">
       <c r="E21" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="F21" t="str">
         <f>角色!$E$10</f>
@@ -10531,18 +10647,18 @@
         <v>iam_menu-20</v>
       </c>
       <c r="H21" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="I21" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="J21" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
     </row>
     <row r="22" spans="1:10">
       <c r="E22" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="F22" t="str">
         <f>角色!$E$10</f>
@@ -10553,18 +10669,18 @@
         <v>iam_menu-23</v>
       </c>
       <c r="H22" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="I22" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="J22" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
     </row>
     <row r="23" spans="1:10">
       <c r="E23" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="F23" t="str">
         <f>角色!$E$10</f>
@@ -10575,18 +10691,18 @@
         <v>iam_menu-21</v>
       </c>
       <c r="H23" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="I23" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="J23" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
     </row>
     <row r="24" spans="1:10">
       <c r="E24" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="F24" t="str">
         <f>角色!$E$10</f>
@@ -10597,18 +10713,18 @@
         <v>iam_menu-24</v>
       </c>
       <c r="H24" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="I24" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="J24" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
     </row>
     <row r="25" spans="1:10">
       <c r="E25" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="F25" t="str">
         <f>角色!$E$10</f>
@@ -10619,18 +10735,18 @@
         <v>iam_menu-12</v>
       </c>
       <c r="H25" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="I25" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="J25" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
     </row>
     <row r="26" spans="1:10">
       <c r="E26" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="F26" t="str">
         <f>角色!$E$10</f>
@@ -10641,18 +10757,18 @@
         <v>iam_menu-22</v>
       </c>
       <c r="H26" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="I26" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="J26" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
     </row>
     <row r="27" spans="1:10">
       <c r="E27" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="F27" t="str">
         <f>角色!$E$10</f>
@@ -10663,18 +10779,18 @@
         <v>iam_menu-25</v>
       </c>
       <c r="H27" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="I27" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="J27" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
     </row>
     <row r="28" spans="1:10">
       <c r="E28" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="F28" t="str">
         <f>角色!$E$10</f>
@@ -10685,18 +10801,18 @@
         <v>iam_menu-13</v>
       </c>
       <c r="H28" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="I28" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="J28" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
     </row>
     <row r="29" spans="1:10">
       <c r="E29" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="F29" t="str">
         <f>角色!$E$10</f>
@@ -10707,18 +10823,18 @@
         <v>iam_menu-16</v>
       </c>
       <c r="H29" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="I29" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="J29" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
     </row>
     <row r="30" spans="1:10">
       <c r="E30" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="F30" t="str">
         <f>角色!$E$11</f>
@@ -10729,18 +10845,18 @@
         <v>iam_menu-16</v>
       </c>
       <c r="H30" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="I30" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="J30" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
     </row>
     <row r="31" spans="1:10">
       <c r="E31" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="F31" t="str">
         <f>角色!$E$12</f>
@@ -10751,18 +10867,18 @@
         <v>iam_menu-19</v>
       </c>
       <c r="H31" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="I31" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="J31" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
     </row>
     <row r="32" spans="1:10">
       <c r="E32" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="F32" t="str">
         <f>角色!$E$12</f>
@@ -10773,18 +10889,18 @@
         <v>iam_menu-23</v>
       </c>
       <c r="H32" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="I32" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="J32" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
     </row>
     <row r="33" spans="5:10">
       <c r="E33" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="F33" t="str">
         <f>角色!$E$12</f>
@@ -10795,18 +10911,18 @@
         <v>iam_menu-24</v>
       </c>
       <c r="H33" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="I33" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="J33" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
     </row>
     <row r="34" spans="5:10">
       <c r="E34" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="F34" t="str">
         <f>角色!$E$12</f>
@@ -10817,18 +10933,18 @@
         <v>iam_menu-25</v>
       </c>
       <c r="H34" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="I34" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="J34" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
     </row>
     <row r="35" spans="5:10">
       <c r="E35" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="F35" t="str">
         <f>角色!$E$12</f>
@@ -10839,18 +10955,18 @@
         <v>iam_menu-16</v>
       </c>
       <c r="H35" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="I35" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="J35" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
     </row>
     <row r="36" spans="5:10">
       <c r="E36" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="F36" t="str">
         <f>角色!$E$13</f>
@@ -10861,18 +10977,18 @@
         <v>iam_menu-19</v>
       </c>
       <c r="H36" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="I36" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="J36" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
     </row>
     <row r="37" spans="5:10">
       <c r="E37" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="F37" t="str">
         <f>角色!$E$13</f>
@@ -10883,18 +10999,18 @@
         <v>iam_menu-20</v>
       </c>
       <c r="H37" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="I37" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="J37" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
     </row>
     <row r="38" spans="5:10">
       <c r="E38" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="F38" t="str">
         <f>角色!$E$13</f>
@@ -10905,18 +11021,18 @@
         <v>iam_menu-23</v>
       </c>
       <c r="H38" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="I38" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="J38" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
     </row>
     <row r="39" spans="5:10">
       <c r="E39" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="F39" t="str">
         <f>角色!$E$13</f>
@@ -10927,18 +11043,18 @@
         <v>iam_menu-21</v>
       </c>
       <c r="H39" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="I39" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="J39" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
     </row>
     <row r="40" spans="5:10">
       <c r="E40" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="F40" t="str">
         <f>角色!$E$13</f>
@@ -10949,18 +11065,18 @@
         <v>iam_menu-22</v>
       </c>
       <c r="H40" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="I40" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="J40" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
     </row>
     <row r="41" spans="5:10">
       <c r="E41" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="F41" t="str">
         <f>角色!$E$13</f>
@@ -10971,17 +11087,17 @@
         <v>iam_menu-16</v>
       </c>
       <c r="H41" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="I41" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="J41" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="17" type="noConversion"/>
+  <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -11029,16 +11145,16 @@
       <c r="C7" t="s">
         <v>438</v>
       </c>
-      <c r="D7" s="92" t="s">
+      <c r="D7" s="93" t="s">
         <v>439</v>
       </c>
-      <c r="E7" s="93" t="s">
+      <c r="E7" s="94" t="s">
         <v>54</v>
       </c>
-      <c r="F7" s="94" t="s">
+      <c r="F7" s="95" t="s">
         <v>440</v>
       </c>
-      <c r="G7" s="95" t="s">
+      <c r="G7" s="96" t="s">
         <v>441</v>
       </c>
       <c r="H7" t="s">
@@ -11071,10 +11187,10 @@
         <v>450</v>
       </c>
       <c r="F8" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="G8" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="H8" t="s">
         <v>82</v>
@@ -11083,10 +11199,10 @@
         <v>453</v>
       </c>
       <c r="J8" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="K8" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="M8" t="s">
         <v>79</v>
@@ -11103,10 +11219,10 @@
         <v>455</v>
       </c>
       <c r="F9" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="G9" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="H9" t="s">
         <v>82</v>
@@ -11115,7 +11231,7 @@
         <v>460</v>
       </c>
       <c r="J9" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="M9" t="s">
         <v>79</v>
@@ -11132,10 +11248,10 @@
         <v>458</v>
       </c>
       <c r="F10" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="G10" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="H10" t="s">
         <v>82</v>
@@ -11144,10 +11260,10 @@
         <v>453</v>
       </c>
       <c r="J10" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="K10" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="M10" t="s">
         <v>79</v>
@@ -11164,10 +11280,10 @@
         <v>461</v>
       </c>
       <c r="F11" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="G11" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="H11" t="s">
         <v>82</v>
@@ -11176,10 +11292,10 @@
         <v>453</v>
       </c>
       <c r="J11" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="K11" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="M11" t="s">
         <v>79</v>
@@ -11196,10 +11312,10 @@
         <v>463</v>
       </c>
       <c r="F12" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="G12" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="H12" t="s">
         <v>82</v>
@@ -11208,10 +11324,10 @@
         <v>453</v>
       </c>
       <c r="J12" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="K12" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="M12" t="s">
         <v>79</v>
@@ -11228,10 +11344,10 @@
         <v>466</v>
       </c>
       <c r="F13" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="G13" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="H13" t="s">
         <v>82</v>
@@ -11240,10 +11356,10 @@
         <v>453</v>
       </c>
       <c r="J13" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="K13" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="M13" t="s">
         <v>79</v>
@@ -11260,10 +11376,10 @@
         <v>469</v>
       </c>
       <c r="F14" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="G14" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="H14" t="s">
         <v>82</v>
@@ -11272,7 +11388,7 @@
         <v>453</v>
       </c>
       <c r="J14" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="K14" t="s">
         <v>571</v>
@@ -11292,10 +11408,10 @@
         <v>472</v>
       </c>
       <c r="F15" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="G15" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="H15" t="s">
         <v>82</v>
@@ -11304,10 +11420,10 @@
         <v>453</v>
       </c>
       <c r="J15" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="K15" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="M15" t="s">
         <v>79</v>
@@ -11324,10 +11440,10 @@
         <v>475</v>
       </c>
       <c r="F16" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="G16" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="H16" t="s">
         <v>82</v>
@@ -11336,10 +11452,10 @@
         <v>453</v>
       </c>
       <c r="J16" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="K16" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="M16" t="s">
         <v>79</v>
@@ -11356,10 +11472,10 @@
         <v>478</v>
       </c>
       <c r="F17" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="G17" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="H17" t="s">
         <v>82</v>
@@ -11368,10 +11484,10 @@
         <v>453</v>
       </c>
       <c r="J17" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="K17" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="M17" t="s">
         <v>79</v>
@@ -11388,10 +11504,10 @@
         <v>481</v>
       </c>
       <c r="F18" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="G18" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="H18" t="s">
         <v>82</v>
@@ -11400,10 +11516,10 @@
         <v>453</v>
       </c>
       <c r="J18" t="s">
+        <v>650</v>
+      </c>
+      <c r="K18" t="s">
         <v>649</v>
-      </c>
-      <c r="K18" t="s">
-        <v>648</v>
       </c>
       <c r="M18" t="s">
         <v>79</v>
@@ -11420,10 +11536,10 @@
         <v>484</v>
       </c>
       <c r="F19" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="G19" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="H19" t="s">
         <v>82</v>
@@ -11432,11 +11548,11 @@
         <v>453</v>
       </c>
       <c r="J19" t="s">
+        <v>652</v>
+      </c>
+      <c r="K19" t="s">
         <v>651</v>
       </c>
-      <c r="K19" t="s">
-        <v>650</v>
-      </c>
       <c r="M19" t="s">
         <v>79</v>
       </c>
@@ -11448,7 +11564,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="17" type="noConversion"/>
+  <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>